--- a/Parallel-Sessions-Schedule.xlsx
+++ b/Parallel-Sessions-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammed-Khalil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B938FC-42C3-4FB7-9CFC-DD128A0805BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04860D4-6C26-498B-BFE2-E3ED0E8D3221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="313">
   <si>
     <r>
       <rPr>
@@ -683,26 +683,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Manufacturing Processes / Machine Learning in Manufacturing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>I-Lin Wang, National Cheng Kung University</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>Structural integrity of hybrid panel of recycled and virgin carbon fibre</t>
     </r>
   </si>
@@ -813,26 +793,6 @@
         <family val="1"/>
       </rPr>
       <t>B120A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Quality Management</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Kyoung-Yun Kim, Wayne State University</t>
     </r>
   </si>
   <si>
@@ -3987,7 +3947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4093,6 +4053,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4129,15 +4128,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4147,22 +4137,49 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4174,15 +4191,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4192,59 +4200,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4553,8 +4528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J133"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4596,23 +4571,23 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47">
-        <v>1</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="56" t="s">
+      <c r="A2" s="89">
+        <v>1</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="37" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10">
@@ -4628,17 +4603,25 @@
         <v>14</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J2" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="A3" s="89">
+        <v>1</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="10">
         <v>2</v>
       </c>
@@ -4652,17 +4635,25 @@
         <v>16</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J3" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="89">
+        <v>1</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="10">
         <v>3</v>
       </c>
@@ -4676,17 +4667,25 @@
         <v>18</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J4" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="89">
+        <v>1</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="10">
         <v>4</v>
       </c>
@@ -4700,17 +4699,25 @@
         <v>20</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J5" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="A6" s="89">
+        <v>1</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="10">
         <v>5</v>
       </c>
@@ -4724,23 +4731,23 @@
         <v>22</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J6" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
-        <v>2</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="41" t="s">
+      <c r="A7" s="89">
+        <v>1</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="15">
@@ -4756,17 +4763,25 @@
         <v>27</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J7" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="45"/>
+      <c r="A8" s="89">
+        <v>1</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="15">
         <v>2</v>
       </c>
@@ -4780,17 +4795,25 @@
         <v>29</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="45"/>
+      <c r="A9" s="89">
+        <v>1</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="15">
         <v>3</v>
       </c>
@@ -4804,17 +4827,25 @@
         <v>31</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J9" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="45"/>
+      <c r="A10" s="89">
+        <v>1</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="15">
         <v>4</v>
       </c>
@@ -4828,17 +4859,25 @@
         <v>33</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="46"/>
+      <c r="A11" s="89">
+        <v>1</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="E11" s="15">
         <v>5</v>
       </c>
@@ -4852,23 +4891,23 @@
         <v>35</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J11" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47">
-        <v>3</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="56" t="s">
+      <c r="A12" s="89">
+        <v>1</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="37" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="10">
@@ -4884,17 +4923,25 @@
         <v>40</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J12" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="89">
+        <v>1</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="E13" s="10">
         <v>2</v>
       </c>
@@ -4908,17 +4955,25 @@
         <v>42</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J13" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
+      <c r="A14" s="89">
+        <v>1</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="E14" s="10">
         <v>3</v>
       </c>
@@ -4932,17 +4987,25 @@
         <v>44</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J14" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="A15" s="89">
+        <v>1</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="E15" s="10">
         <v>4</v>
       </c>
@@ -4956,17 +5019,25 @@
         <v>46</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J15" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+      <c r="A16" s="89">
+        <v>1</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="E16" s="10">
         <v>5</v>
       </c>
@@ -4980,23 +5051,23 @@
         <v>48</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J16" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J16" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35">
-        <v>4</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="44" t="s">
+      <c r="A17" s="89">
+        <v>1</v>
+      </c>
+      <c r="B17" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="15">
@@ -5012,17 +5083,25 @@
         <v>53</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J17" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="45"/>
+      <c r="A18" s="89">
+        <v>1</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E18" s="15">
         <v>2</v>
       </c>
@@ -5036,17 +5115,25 @@
         <v>55</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J18" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="89">
+        <v>1</v>
+      </c>
+      <c r="B19" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E19" s="15">
         <v>3</v>
       </c>
@@ -5060,17 +5147,25 @@
         <v>57</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J19" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J19" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="45"/>
+      <c r="A20" s="89">
+        <v>1</v>
+      </c>
+      <c r="B20" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E20" s="15">
         <v>4</v>
       </c>
@@ -5084,17 +5179,25 @@
         <v>59</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J20" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J20" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="46"/>
+      <c r="A21" s="89">
+        <v>1</v>
+      </c>
+      <c r="B21" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E21" s="15">
         <v>5</v>
       </c>
@@ -5108,24 +5211,24 @@
         <v>61</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J21" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J21" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47">
-        <v>5</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>64</v>
+      <c r="A22" s="89">
+        <v>1</v>
+      </c>
+      <c r="B22" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E22" s="10">
         <v>1</v>
@@ -5134,23 +5237,31 @@
         <v>7307</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J22" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+      <c r="A23" s="89">
+        <v>1</v>
+      </c>
+      <c r="B23" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E23" s="10">
         <v>2</v>
       </c>
@@ -5158,23 +5269,31 @@
         <v>7446</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J23" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="A24" s="89">
+        <v>1</v>
+      </c>
+      <c r="B24" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E24" s="10">
         <v>3</v>
       </c>
@@ -5182,23 +5301,31 @@
         <v>9102</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J24" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="A25" s="89">
+        <v>1</v>
+      </c>
+      <c r="B25" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E25" s="10">
         <v>4</v>
       </c>
@@ -5206,23 +5333,31 @@
         <v>5405</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J25" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
+      <c r="A26" s="89">
+        <v>1</v>
+      </c>
+      <c r="B26" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E26" s="10">
         <v>5</v>
       </c>
@@ -5230,30 +5365,30 @@
         <v>7384</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J26" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35">
-        <v>6</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>77</v>
+      <c r="A27" s="89">
+        <v>1</v>
+      </c>
+      <c r="B27" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E27" s="15">
         <v>1</v>
@@ -5262,23 +5397,31 @@
         <v>7366</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J27" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="45"/>
+      <c r="A28" s="89">
+        <v>1</v>
+      </c>
+      <c r="B28" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E28" s="15">
         <v>2</v>
       </c>
@@ -5286,23 +5429,31 @@
         <v>7272</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J28" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="45"/>
+      <c r="A29" s="89">
+        <v>1</v>
+      </c>
+      <c r="B29" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E29" s="15">
         <v>3</v>
       </c>
@@ -5310,23 +5461,31 @@
         <v>7291</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J29" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="45"/>
+      <c r="A30" s="89">
+        <v>1</v>
+      </c>
+      <c r="B30" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E30" s="15">
         <v>4</v>
       </c>
@@ -5334,23 +5493,31 @@
         <v>7350</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J30" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="46"/>
+      <c r="A31" s="89">
+        <v>1</v>
+      </c>
+      <c r="B31" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E31" s="15">
         <v>5</v>
       </c>
@@ -5358,30 +5525,30 @@
         <v>7278</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J31" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47">
-        <v>1</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="77" t="s">
-        <v>91</v>
+      <c r="A32" s="89">
+        <v>1</v>
+      </c>
+      <c r="B32" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E32" s="8">
         <v>1</v>
@@ -5390,23 +5557,31 @@
         <v>7365</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J32" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="78"/>
+      <c r="A33" s="89">
+        <v>1</v>
+      </c>
+      <c r="B33" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E33" s="8">
         <v>2</v>
       </c>
@@ -5414,23 +5589,31 @@
         <v>5360</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J33" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="78"/>
+      <c r="A34" s="89">
+        <v>1</v>
+      </c>
+      <c r="B34" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E34" s="8">
         <v>3</v>
       </c>
@@ -5438,23 +5621,31 @@
         <v>7298</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J34" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J34" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="79"/>
+      <c r="A35" s="89">
+        <v>1</v>
+      </c>
+      <c r="B35" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E35" s="8">
         <v>4</v>
       </c>
@@ -5462,30 +5653,30 @@
         <v>5443</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J35" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J35" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35">
-        <v>2</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>101</v>
+      <c r="A36" s="89">
+        <v>1</v>
+      </c>
+      <c r="B36" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E36" s="14">
         <v>1</v>
@@ -5494,23 +5685,31 @@
         <v>7369</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J36" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J36" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="89">
+        <v>1</v>
+      </c>
+      <c r="B37" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E37" s="14">
         <v>2</v>
       </c>
@@ -5518,23 +5717,31 @@
         <v>7320</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J37" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J37" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="39"/>
+      <c r="A38" s="89">
+        <v>1</v>
+      </c>
+      <c r="B38" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E38" s="14">
         <v>3</v>
       </c>
@@ -5542,23 +5749,31 @@
         <v>7299</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J38" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="40"/>
+      <c r="A39" s="89">
+        <v>1</v>
+      </c>
+      <c r="B39" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E39" s="14">
         <v>4</v>
       </c>
@@ -5566,30 +5781,30 @@
         <v>7370</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J39" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J39" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="47">
-        <v>3</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>110</v>
+      <c r="A40" s="89">
+        <v>1</v>
+      </c>
+      <c r="B40" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E40" s="8">
         <v>1</v>
@@ -5598,23 +5813,31 @@
         <v>5342</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J40" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J40" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="48"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="51"/>
+      <c r="A41" s="89">
+        <v>1</v>
+      </c>
+      <c r="B41" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E41" s="8">
         <v>2</v>
       </c>
@@ -5622,23 +5845,31 @@
         <v>7312</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I41" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J41" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J41" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="48"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="51"/>
+      <c r="A42" s="89">
+        <v>1</v>
+      </c>
+      <c r="B42" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E42" s="8">
         <v>3</v>
       </c>
@@ -5646,23 +5877,31 @@
         <v>7415</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J42" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J42" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="49"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="52"/>
+      <c r="A43" s="89">
+        <v>1</v>
+      </c>
+      <c r="B43" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E43" s="8">
         <v>4</v>
       </c>
@@ -5670,30 +5909,30 @@
         <v>7403</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H43" s="24" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J43" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J43" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="35">
-        <v>4</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>119</v>
+      <c r="A44" s="89">
+        <v>1</v>
+      </c>
+      <c r="B44" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E44" s="14">
         <v>1</v>
@@ -5702,23 +5941,31 @@
         <v>7359</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J44" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J44" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="42"/>
+      <c r="A45" s="89">
+        <v>1</v>
+      </c>
+      <c r="B45" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E45" s="14">
         <v>2</v>
       </c>
@@ -5726,23 +5973,31 @@
         <v>7301</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I45" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J45" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J45" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="42"/>
+      <c r="A46" s="89">
+        <v>1</v>
+      </c>
+      <c r="B46" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E46" s="14">
         <v>3</v>
       </c>
@@ -5750,23 +6005,31 @@
         <v>8127</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I46" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J46" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="37"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="43"/>
+      <c r="A47" s="89">
+        <v>1</v>
+      </c>
+      <c r="B47" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E47" s="14">
         <v>4</v>
       </c>
@@ -5774,30 +6037,30 @@
         <v>7346</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I47" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J47" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="47">
-        <v>5</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="71" t="s">
-        <v>129</v>
+      <c r="A48" s="89">
+        <v>1</v>
+      </c>
+      <c r="B48" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E48" s="8">
         <v>1</v>
@@ -5806,23 +6069,31 @@
         <v>7379</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I48" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J48" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="72"/>
+      <c r="A49" s="89">
+        <v>1</v>
+      </c>
+      <c r="B49" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E49" s="8">
         <v>2</v>
       </c>
@@ -5830,23 +6101,31 @@
         <v>6300</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I49" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J49" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="72"/>
+      <c r="A50" s="89">
+        <v>1</v>
+      </c>
+      <c r="B50" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E50" s="8">
         <v>3</v>
       </c>
@@ -5854,23 +6133,31 @@
         <v>7433</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I50" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J50" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J50" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="49"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="73"/>
+      <c r="A51" s="89">
+        <v>1</v>
+      </c>
+      <c r="B51" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E51" s="8">
         <v>4</v>
       </c>
@@ -5878,30 +6165,30 @@
         <v>6229</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I51" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J51" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J51" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="35">
-        <v>6</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>139</v>
+      <c r="A52" s="89">
+        <v>1</v>
+      </c>
+      <c r="B52" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E52" s="14">
         <v>1</v>
@@ -5910,23 +6197,31 @@
         <v>7327</v>
       </c>
       <c r="G52" s="27" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I52" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J52" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J52" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="39"/>
+      <c r="A53" s="89">
+        <v>1</v>
+      </c>
+      <c r="B53" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E53" s="14">
         <v>2</v>
       </c>
@@ -5934,23 +6229,31 @@
         <v>7363</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I53" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J53" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J53" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="36"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="39"/>
+      <c r="A54" s="89">
+        <v>1</v>
+      </c>
+      <c r="B54" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E54" s="14">
         <v>3</v>
       </c>
@@ -5958,23 +6261,31 @@
         <v>6439</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J54" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J54" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="37"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="40"/>
+      <c r="A55" s="89">
+        <v>1</v>
+      </c>
+      <c r="B55" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E55" s="14">
         <v>4</v>
       </c>
@@ -5982,30 +6293,30 @@
         <v>7353</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I55" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J55" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J55" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="47">
-        <v>1</v>
-      </c>
-      <c r="B56" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="71" t="s">
-        <v>150</v>
+      <c r="A56" s="89">
+        <v>1</v>
+      </c>
+      <c r="B56" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E56" s="10">
         <v>1</v>
@@ -6014,23 +6325,31 @@
         <v>7397</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I56" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J56" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J56" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="48"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="72"/>
+      <c r="A57" s="89">
+        <v>1</v>
+      </c>
+      <c r="B57" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E57" s="10">
         <v>2</v>
       </c>
@@ -6038,23 +6357,31 @@
         <v>7273</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I57" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J57" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="72"/>
+        <v>310</v>
+      </c>
+      <c r="J57" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A58" s="89">
+        <v>1</v>
+      </c>
+      <c r="B58" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E58" s="10">
         <v>3</v>
       </c>
@@ -6062,23 +6389,31 @@
         <v>7319</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I58" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J58" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J58" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A59" s="49"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="73"/>
+      <c r="A59" s="89">
+        <v>1</v>
+      </c>
+      <c r="B59" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E59" s="10">
         <v>4</v>
       </c>
@@ -6086,30 +6421,30 @@
         <v>7362</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I59" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J59" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A60" s="35">
-        <v>2</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="74" t="s">
-        <v>159</v>
+        <v>310</v>
+      </c>
+      <c r="J59" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="89">
+        <v>1</v>
+      </c>
+      <c r="B60" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E60" s="15">
         <v>1</v>
@@ -6118,23 +6453,31 @@
         <v>8412</v>
       </c>
       <c r="G60" s="27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I60" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J60" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A61" s="36"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="75"/>
+        <v>310</v>
+      </c>
+      <c r="J60" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A61" s="89">
+        <v>1</v>
+      </c>
+      <c r="B61" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E61" s="15">
         <v>2</v>
       </c>
@@ -6142,23 +6485,31 @@
         <v>7282</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I61" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J61" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A62" s="36"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="75"/>
+        <v>310</v>
+      </c>
+      <c r="J61" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A62" s="89">
+        <v>1</v>
+      </c>
+      <c r="B62" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E62" s="15">
         <v>3</v>
       </c>
@@ -6166,23 +6517,31 @@
         <v>6423</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I62" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J62" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A63" s="37"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="76"/>
+        <v>310</v>
+      </c>
+      <c r="J62" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A63" s="89">
+        <v>1</v>
+      </c>
+      <c r="B63" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E63" s="15">
         <v>4</v>
       </c>
@@ -6190,30 +6549,30 @@
         <v>7426</v>
       </c>
       <c r="G63" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I63" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J63" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" s="47">
-        <v>3</v>
-      </c>
-      <c r="B64" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="56" t="s">
-        <v>167</v>
+        <v>310</v>
+      </c>
+      <c r="J63" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="89">
+        <v>1</v>
+      </c>
+      <c r="B64" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E64" s="10">
         <v>1</v>
@@ -6222,23 +6581,31 @@
         <v>7314</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I64" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J64" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="57"/>
+        <v>310</v>
+      </c>
+      <c r="J64" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A65" s="89">
+        <v>1</v>
+      </c>
+      <c r="B65" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E65" s="10">
         <v>2</v>
       </c>
@@ -6246,23 +6613,31 @@
         <v>7428</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I65" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J65" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A66" s="48"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="57"/>
+        <v>310</v>
+      </c>
+      <c r="J65" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A66" s="89">
+        <v>1</v>
+      </c>
+      <c r="B66" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E66" s="10">
         <v>3</v>
       </c>
@@ -6270,23 +6645,31 @@
         <v>5251</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>42</v>
       </c>
       <c r="I66" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J66" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A67" s="49"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="58"/>
+        <v>310</v>
+      </c>
+      <c r="J66" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A67" s="89">
+        <v>1</v>
+      </c>
+      <c r="B67" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E67" s="10">
         <v>4</v>
       </c>
@@ -6294,30 +6677,30 @@
         <v>7387</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I67" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J67" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A68" s="35">
-        <v>4</v>
-      </c>
-      <c r="B68" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>174</v>
+        <v>310</v>
+      </c>
+      <c r="J67" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="89">
+        <v>1</v>
+      </c>
+      <c r="B68" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E68" s="15">
         <v>1</v>
@@ -6326,23 +6709,31 @@
         <v>6165</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I68" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J68" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="36"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="J68" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A69" s="89">
+        <v>1</v>
+      </c>
+      <c r="B69" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E69" s="15">
         <v>2</v>
       </c>
@@ -6350,23 +6741,31 @@
         <v>7351</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I69" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J69" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A70" s="36"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
+        <v>310</v>
+      </c>
+      <c r="J69" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A70" s="89">
+        <v>1</v>
+      </c>
+      <c r="B70" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E70" s="15">
         <v>3</v>
       </c>
@@ -6374,23 +6773,31 @@
         <v>7393</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I70" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J70" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="37"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
+        <v>310</v>
+      </c>
+      <c r="J70" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A71" s="89">
+        <v>1</v>
+      </c>
+      <c r="B71" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E71" s="15">
         <v>4</v>
       </c>
@@ -6398,30 +6805,30 @@
         <v>7436</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I71" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J71" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A72" s="47">
-        <v>5</v>
-      </c>
-      <c r="B72" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="56" t="s">
-        <v>182</v>
+        <v>310</v>
+      </c>
+      <c r="J71" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="89">
+        <v>1</v>
+      </c>
+      <c r="B72" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E72" s="10">
         <v>1</v>
@@ -6430,23 +6837,31 @@
         <v>7377</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I72" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J72" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
+        <v>310</v>
+      </c>
+      <c r="J72" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A73" s="89">
+        <v>1</v>
+      </c>
+      <c r="B73" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E73" s="10">
         <v>2</v>
       </c>
@@ -6454,23 +6869,31 @@
         <v>7281</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I73" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J73" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A74" s="48"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
+        <v>310</v>
+      </c>
+      <c r="J73" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A74" s="89">
+        <v>1</v>
+      </c>
+      <c r="B74" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E74" s="10">
         <v>3</v>
       </c>
@@ -6478,23 +6901,31 @@
         <v>6336</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I74" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J74" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A75" s="49"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
+        <v>310</v>
+      </c>
+      <c r="J74" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A75" s="89">
+        <v>1</v>
+      </c>
+      <c r="B75" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E75" s="10">
         <v>4</v>
       </c>
@@ -6502,30 +6933,30 @@
         <v>7378</v>
       </c>
       <c r="G75" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I75" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J75" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A76" s="35">
-        <v>6</v>
-      </c>
-      <c r="B76" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>192</v>
+        <v>310</v>
+      </c>
+      <c r="J75" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="89">
+        <v>1</v>
+      </c>
+      <c r="B76" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E76" s="15">
         <v>1</v>
@@ -6534,23 +6965,31 @@
         <v>7284</v>
       </c>
       <c r="G76" s="27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I76" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J76" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A77" s="36"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="39"/>
+        <v>310</v>
+      </c>
+      <c r="J76" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A77" s="89">
+        <v>1</v>
+      </c>
+      <c r="B77" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E77" s="15">
         <v>2</v>
       </c>
@@ -6558,23 +6997,31 @@
         <v>7371</v>
       </c>
       <c r="G77" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I77" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J77" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A78" s="36"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="39"/>
+        <v>310</v>
+      </c>
+      <c r="J77" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A78" s="89">
+        <v>1</v>
+      </c>
+      <c r="B78" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E78" s="15">
         <v>3</v>
       </c>
@@ -6582,23 +7029,31 @@
         <v>7348</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I78" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J78" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A79" s="37"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="40"/>
+        <v>310</v>
+      </c>
+      <c r="J78" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A79" s="89">
+        <v>1</v>
+      </c>
+      <c r="B79" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E79" s="15">
         <v>4</v>
       </c>
@@ -6606,30 +7061,30 @@
         <v>7324</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I79" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J79" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A80" s="47">
-        <v>1</v>
-      </c>
-      <c r="B80" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="D80" s="50" t="s">
-        <v>203</v>
+        <v>310</v>
+      </c>
+      <c r="J79" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A80" s="89">
+        <v>1</v>
+      </c>
+      <c r="B80" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E80" s="10">
         <v>1</v>
@@ -6638,23 +7093,31 @@
         <v>6212</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I80" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J80" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J80" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A81" s="48"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="51"/>
+      <c r="A81" s="89">
+        <v>1</v>
+      </c>
+      <c r="B81" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E81" s="10">
         <v>2</v>
       </c>
@@ -6662,23 +7125,31 @@
         <v>7321</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I81" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J81" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A82" s="48"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="51"/>
+        <v>310</v>
+      </c>
+      <c r="J81" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A82" s="89">
+        <v>1</v>
+      </c>
+      <c r="B82" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E82" s="10">
         <v>3</v>
       </c>
@@ -6686,23 +7157,31 @@
         <v>7368</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I82" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J82" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="48"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="51"/>
+        <v>310</v>
+      </c>
+      <c r="J82" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A83" s="89">
+        <v>1</v>
+      </c>
+      <c r="B83" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D83" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E83" s="10">
         <v>4</v>
       </c>
@@ -6710,23 +7189,31 @@
         <v>7444</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I83" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J83" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J83" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A84" s="49"/>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="52"/>
+      <c r="A84" s="89">
+        <v>1</v>
+      </c>
+      <c r="B84" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E84" s="10">
         <v>5</v>
       </c>
@@ -6734,30 +7221,30 @@
         <v>7322</v>
       </c>
       <c r="G84" s="23" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I84" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J84" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="35">
-        <v>2</v>
-      </c>
-      <c r="B85" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85" s="38" t="s">
-        <v>213</v>
+        <v>310</v>
+      </c>
+      <c r="J84" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="89">
+        <v>1</v>
+      </c>
+      <c r="B85" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E85" s="15">
         <v>1</v>
@@ -6766,23 +7253,31 @@
         <v>7400</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I85" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J85" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="36"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="39"/>
+        <v>310</v>
+      </c>
+      <c r="J85" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A86" s="89">
+        <v>1</v>
+      </c>
+      <c r="B86" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E86" s="15">
         <v>2</v>
       </c>
@@ -6790,23 +7285,31 @@
         <v>7302</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I86" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J86" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A87" s="36"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="39"/>
+        <v>310</v>
+      </c>
+      <c r="J86" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A87" s="89">
+        <v>1</v>
+      </c>
+      <c r="B87" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E87" s="15">
         <v>3</v>
       </c>
@@ -6814,23 +7317,31 @@
         <v>7280</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I87" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J87" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J87" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A88" s="36"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="39"/>
+      <c r="A88" s="89">
+        <v>1</v>
+      </c>
+      <c r="B88" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E88" s="15">
         <v>4</v>
       </c>
@@ -6838,23 +7349,31 @@
         <v>7331</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I88" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J88" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A89" s="37"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="40"/>
+        <v>310</v>
+      </c>
+      <c r="J88" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A89" s="89">
+        <v>1</v>
+      </c>
+      <c r="B89" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E89" s="15">
         <v>5</v>
       </c>
@@ -6862,30 +7381,30 @@
         <v>7344</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I89" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J89" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A90" s="47">
-        <v>3</v>
-      </c>
-      <c r="B90" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C90" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="71" t="s">
-        <v>222</v>
+        <v>310</v>
+      </c>
+      <c r="J89" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="89">
+        <v>1</v>
+      </c>
+      <c r="B90" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E90" s="10">
         <v>1</v>
@@ -6894,23 +7413,31 @@
         <v>7418</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I90" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J90" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A91" s="48"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="72"/>
-      <c r="D91" s="72"/>
+        <v>310</v>
+      </c>
+      <c r="J90" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A91" s="89">
+        <v>1</v>
+      </c>
+      <c r="B91" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E91" s="10">
         <v>2</v>
       </c>
@@ -6918,23 +7445,31 @@
         <v>5388</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H91" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I91" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J91" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A92" s="48"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
+        <v>310</v>
+      </c>
+      <c r="J91" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A92" s="89">
+        <v>1</v>
+      </c>
+      <c r="B92" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D92" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E92" s="10">
         <v>3</v>
       </c>
@@ -6942,23 +7477,31 @@
         <v>7316</v>
       </c>
       <c r="G92" s="30" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I92" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J92" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A93" s="48"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="72"/>
-      <c r="D93" s="72"/>
+        <v>310</v>
+      </c>
+      <c r="J92" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A93" s="89">
+        <v>1</v>
+      </c>
+      <c r="B93" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D93" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E93" s="10">
         <v>4</v>
       </c>
@@ -6966,23 +7509,31 @@
         <v>7275</v>
       </c>
       <c r="G93" s="23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I93" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J93" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A94" s="49"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="73"/>
-      <c r="D94" s="73"/>
+        <v>310</v>
+      </c>
+      <c r="J93" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A94" s="89">
+        <v>1</v>
+      </c>
+      <c r="B94" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E94" s="10">
         <v>5</v>
       </c>
@@ -6990,30 +7541,30 @@
         <v>7420</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I94" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J94" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A95" s="35">
-        <v>4</v>
-      </c>
-      <c r="B95" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C95" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" s="68" t="s">
-        <v>233</v>
+        <v>310</v>
+      </c>
+      <c r="J94" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="89">
+        <v>1</v>
+      </c>
+      <c r="B95" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E95" s="15">
         <v>1</v>
@@ -7022,23 +7573,31 @@
         <v>7440</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I95" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J95" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A96" s="36"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="69"/>
+        <v>310</v>
+      </c>
+      <c r="J95" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A96" s="89">
+        <v>1</v>
+      </c>
+      <c r="B96" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E96" s="15">
         <v>2</v>
       </c>
@@ -7046,23 +7605,31 @@
         <v>5102</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I96" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J96" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A97" s="36"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="69"/>
+        <v>310</v>
+      </c>
+      <c r="J96" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A97" s="89">
+        <v>1</v>
+      </c>
+      <c r="B97" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E97" s="15">
         <v>3</v>
       </c>
@@ -7070,23 +7637,31 @@
         <v>7334</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I97" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J97" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A98" s="36"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="69"/>
+        <v>310</v>
+      </c>
+      <c r="J97" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A98" s="89">
+        <v>1</v>
+      </c>
+      <c r="B98" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E98" s="15">
         <v>4</v>
       </c>
@@ -7094,23 +7669,31 @@
         <v>7328</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I98" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J98" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A99" s="37"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="46"/>
-      <c r="D99" s="70"/>
+        <v>310</v>
+      </c>
+      <c r="J98" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A99" s="89">
+        <v>1</v>
+      </c>
+      <c r="B99" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E99" s="15">
         <v>5</v>
       </c>
@@ -7118,30 +7701,30 @@
         <v>7283</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I99" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J99" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A100" s="47">
-        <v>5</v>
-      </c>
-      <c r="B100" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C100" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="D100" s="71" t="s">
-        <v>242</v>
+        <v>310</v>
+      </c>
+      <c r="J99" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="89">
+        <v>1</v>
+      </c>
+      <c r="B100" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E100" s="10">
         <v>1</v>
@@ -7150,23 +7733,31 @@
         <v>8398</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I100" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J100" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="48"/>
-      <c r="B101" s="51"/>
-      <c r="C101" s="63"/>
-      <c r="D101" s="72"/>
+        <v>310</v>
+      </c>
+      <c r="J100" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A101" s="89">
+        <v>1</v>
+      </c>
+      <c r="B101" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E101" s="10">
         <v>2</v>
       </c>
@@ -7174,23 +7765,31 @@
         <v>7277</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H101" s="23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I101" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J101" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A102" s="48"/>
-      <c r="B102" s="51"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="72"/>
+        <v>310</v>
+      </c>
+      <c r="J101" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A102" s="89">
+        <v>1</v>
+      </c>
+      <c r="B102" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E102" s="10">
         <v>3</v>
       </c>
@@ -7198,23 +7797,31 @@
         <v>7340</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I102" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J102" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A103" s="48"/>
-      <c r="B103" s="51"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="72"/>
+        <v>310</v>
+      </c>
+      <c r="J102" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A103" s="89">
+        <v>1</v>
+      </c>
+      <c r="B103" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E103" s="10">
         <v>4</v>
       </c>
@@ -7222,23 +7829,31 @@
         <v>7416</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I103" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J103" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A104" s="49"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="73"/>
+        <v>310</v>
+      </c>
+      <c r="J103" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A104" s="89">
+        <v>1</v>
+      </c>
+      <c r="B104" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D104" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E104" s="10">
         <v>5</v>
       </c>
@@ -7246,30 +7861,30 @@
         <v>7292</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I104" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J104" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J104" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A105" s="35">
-        <v>6</v>
-      </c>
-      <c r="B105" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C105" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D105" s="38" t="s">
-        <v>251</v>
+      <c r="A105" s="89">
+        <v>1</v>
+      </c>
+      <c r="B105" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E105" s="15">
         <v>1</v>
@@ -7278,23 +7893,31 @@
         <v>8279</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I105" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J105" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A106" s="36"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="39"/>
+        <v>310</v>
+      </c>
+      <c r="J105" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A106" s="89">
+        <v>1</v>
+      </c>
+      <c r="B106" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D106" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E106" s="15">
         <v>2</v>
       </c>
@@ -7302,23 +7925,31 @@
         <v>7296</v>
       </c>
       <c r="G106" s="31" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I106" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J106" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A107" s="36"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="39"/>
+        <v>310</v>
+      </c>
+      <c r="J106" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A107" s="89">
+        <v>1</v>
+      </c>
+      <c r="B107" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D107" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E107" s="15">
         <v>3</v>
       </c>
@@ -7326,23 +7957,31 @@
         <v>8330</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I107" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J107" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A108" s="36"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="39"/>
+        <v>310</v>
+      </c>
+      <c r="J107" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A108" s="89">
+        <v>1</v>
+      </c>
+      <c r="B108" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E108" s="15">
         <v>4</v>
       </c>
@@ -7350,23 +7989,31 @@
         <v>7441</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="I108" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J108" s="85" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A109" s="37"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="40"/>
+        <v>310</v>
+      </c>
+      <c r="J108" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A109" s="89">
+        <v>1</v>
+      </c>
+      <c r="B109" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E109" s="15">
         <v>5</v>
       </c>
@@ -7374,30 +8021,30 @@
         <v>8438</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H109" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I109" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J109" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J109" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A110" s="47">
-        <v>1</v>
-      </c>
-      <c r="B110" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D110" s="65" t="s">
-        <v>263</v>
+      <c r="A110" s="89">
+        <v>1</v>
+      </c>
+      <c r="B110" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D110" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E110" s="10">
         <v>1</v>
@@ -7406,23 +8053,31 @@
         <v>7317</v>
       </c>
       <c r="G110" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H110" s="32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I110" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J110" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J110" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="45" x14ac:dyDescent="0.2">
-      <c r="A111" s="48"/>
-      <c r="B111" s="63"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="66"/>
+      <c r="A111" s="89">
+        <v>1</v>
+      </c>
+      <c r="B111" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E111" s="10">
         <v>2</v>
       </c>
@@ -7430,23 +8085,31 @@
         <v>7394</v>
       </c>
       <c r="G111" s="21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H111" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I111" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J111" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J111" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="48"/>
-      <c r="B112" s="63"/>
-      <c r="C112" s="57"/>
-      <c r="D112" s="66"/>
+      <c r="A112" s="89">
+        <v>1</v>
+      </c>
+      <c r="B112" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E112" s="10">
         <v>3</v>
       </c>
@@ -7454,23 +8117,31 @@
         <v>7294</v>
       </c>
       <c r="G112" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I112" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J112" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J112" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="49"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="67"/>
+      <c r="A113" s="89">
+        <v>1</v>
+      </c>
+      <c r="B113" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E113" s="10">
         <v>4</v>
       </c>
@@ -7478,30 +8149,30 @@
         <v>7367</v>
       </c>
       <c r="G113" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H113" s="33" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="I113" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J113" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J113" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="35">
-        <v>2</v>
-      </c>
-      <c r="B114" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C114" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D114" s="38" t="s">
-        <v>251</v>
+      <c r="A114" s="89">
+        <v>1</v>
+      </c>
+      <c r="B114" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E114" s="15">
         <v>1</v>
@@ -7510,23 +8181,31 @@
         <v>5276</v>
       </c>
       <c r="G114" s="27" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I114" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J114" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J114" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="36"/>
-      <c r="B115" s="42"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="39"/>
+      <c r="A115" s="89">
+        <v>1</v>
+      </c>
+      <c r="B115" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E115" s="15">
         <v>2</v>
       </c>
@@ -7534,23 +8213,31 @@
         <v>7318</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I115" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J115" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J115" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="36"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="39"/>
+      <c r="A116" s="89">
+        <v>1</v>
+      </c>
+      <c r="B116" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E116" s="15">
         <v>3</v>
       </c>
@@ -7558,23 +8245,31 @@
         <v>7361</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="I116" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J116" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J116" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="37"/>
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="40"/>
+      <c r="A117" s="89">
+        <v>1</v>
+      </c>
+      <c r="B117" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D117" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E117" s="15">
         <v>4</v>
       </c>
@@ -7582,30 +8277,30 @@
         <v>6289</v>
       </c>
       <c r="G117" s="27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H117" s="27" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I117" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J117" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J117" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="47">
-        <v>3</v>
-      </c>
-      <c r="B118" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C118" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D118" s="59" t="s">
-        <v>280</v>
+      <c r="A118" s="89">
+        <v>1</v>
+      </c>
+      <c r="B118" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D118" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E118" s="10">
         <v>1</v>
@@ -7614,23 +8309,31 @@
         <v>7347</v>
       </c>
       <c r="G118" s="21" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="I118" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J118" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J118" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="48"/>
-      <c r="B119" s="51"/>
-      <c r="C119" s="57"/>
-      <c r="D119" s="60"/>
+      <c r="A119" s="89">
+        <v>1</v>
+      </c>
+      <c r="B119" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D119" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E119" s="10">
         <v>2</v>
       </c>
@@ -7638,23 +8341,31 @@
         <v>7341</v>
       </c>
       <c r="G119" s="21" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H119" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I119" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J119" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J119" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="48"/>
-      <c r="B120" s="51"/>
-      <c r="C120" s="57"/>
-      <c r="D120" s="60"/>
+      <c r="A120" s="89">
+        <v>1</v>
+      </c>
+      <c r="B120" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E120" s="10">
         <v>3</v>
       </c>
@@ -7662,23 +8373,31 @@
         <v>7406</v>
       </c>
       <c r="G120" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H120" s="21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I120" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J120" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J120" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="49"/>
-      <c r="B121" s="52"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="61"/>
+      <c r="A121" s="89">
+        <v>1</v>
+      </c>
+      <c r="B121" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D121" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E121" s="10">
         <v>4</v>
       </c>
@@ -7686,30 +8405,30 @@
         <v>7339</v>
       </c>
       <c r="G121" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H121" s="21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I121" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J121" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J121" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="35">
-        <v>4</v>
-      </c>
-      <c r="B122" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C122" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="D122" s="38" t="s">
-        <v>289</v>
+      <c r="A122" s="89">
+        <v>1</v>
+      </c>
+      <c r="B122" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E122" s="15">
         <v>1</v>
@@ -7718,23 +8437,31 @@
         <v>7309</v>
       </c>
       <c r="G122" s="27" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I122" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J122" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J122" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="36"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="39"/>
+      <c r="A123" s="89">
+        <v>1</v>
+      </c>
+      <c r="B123" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D123" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E123" s="15">
         <v>2</v>
       </c>
@@ -7742,23 +8469,31 @@
         <v>7396</v>
       </c>
       <c r="G123" s="27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H123" s="27" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I123" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J123" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J123" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="36"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="45"/>
-      <c r="D124" s="39"/>
+      <c r="A124" s="89">
+        <v>1</v>
+      </c>
+      <c r="B124" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D124" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E124" s="15">
         <v>3</v>
       </c>
@@ -7766,23 +8501,31 @@
         <v>7310</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I124" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J124" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J124" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="37"/>
-      <c r="B125" s="40"/>
-      <c r="C125" s="46"/>
-      <c r="D125" s="40"/>
+      <c r="A125" s="89">
+        <v>1</v>
+      </c>
+      <c r="B125" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D125" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E125" s="15">
         <v>4</v>
       </c>
@@ -7790,30 +8533,30 @@
         <v>7391</v>
       </c>
       <c r="G125" s="27" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H125" s="27" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I125" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J125" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J125" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="47">
-        <v>5</v>
-      </c>
-      <c r="B126" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C126" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="D126" s="56" t="s">
-        <v>298</v>
+      <c r="A126" s="89">
+        <v>1</v>
+      </c>
+      <c r="B126" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E126" s="10">
         <v>1</v>
@@ -7822,23 +8565,31 @@
         <v>7408</v>
       </c>
       <c r="G126" s="21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I126" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J126" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J126" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="48"/>
-      <c r="B127" s="51"/>
-      <c r="C127" s="54"/>
-      <c r="D127" s="57"/>
+      <c r="A127" s="89">
+        <v>1</v>
+      </c>
+      <c r="B127" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D127" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E127" s="10">
         <v>2</v>
       </c>
@@ -7846,23 +8597,31 @@
         <v>7293</v>
       </c>
       <c r="G127" s="21" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I127" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J127" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J127" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="48"/>
-      <c r="B128" s="51"/>
-      <c r="C128" s="54"/>
-      <c r="D128" s="57"/>
+      <c r="A128" s="89">
+        <v>1</v>
+      </c>
+      <c r="B128" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D128" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E128" s="10">
         <v>3</v>
       </c>
@@ -7870,23 +8629,31 @@
         <v>7329</v>
       </c>
       <c r="G128" s="21" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H128" s="21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I128" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J128" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J128" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="49"/>
-      <c r="B129" s="52"/>
-      <c r="C129" s="55"/>
-      <c r="D129" s="58"/>
+      <c r="A129" s="89">
+        <v>1</v>
+      </c>
+      <c r="B129" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D129" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E129" s="10">
         <v>4</v>
       </c>
@@ -7894,30 +8661,30 @@
         <v>6432</v>
       </c>
       <c r="G129" s="21" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I129" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J129" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J129" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="35">
-        <v>6</v>
-      </c>
-      <c r="B130" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C130" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D130" s="44" t="s">
-        <v>306</v>
+      <c r="A130" s="89">
+        <v>1</v>
+      </c>
+      <c r="B130" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D130" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="E130" s="15">
         <v>1</v>
@@ -7926,23 +8693,31 @@
         <v>5373</v>
       </c>
       <c r="G130" s="27" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H130" s="27" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I130" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J130" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J130" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="36"/>
-      <c r="B131" s="39"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="45"/>
+      <c r="A131" s="89">
+        <v>1</v>
+      </c>
+      <c r="B131" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D131" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E131" s="15">
         <v>2</v>
       </c>
@@ -7950,23 +8725,31 @@
         <v>7422</v>
       </c>
       <c r="G131" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H131" s="27" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I131" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J131" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J131" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="36"/>
-      <c r="B132" s="39"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="45"/>
+      <c r="A132" s="89">
+        <v>1</v>
+      </c>
+      <c r="B132" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D132" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E132" s="15">
         <v>3</v>
       </c>
@@ -7974,23 +8757,31 @@
         <v>7386</v>
       </c>
       <c r="G132" s="27" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I132" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J132" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J132" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="37"/>
-      <c r="B133" s="40"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="46"/>
+      <c r="A133" s="89">
+        <v>1</v>
+      </c>
+      <c r="B133" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D133" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="E133" s="15">
         <v>4</v>
       </c>
@@ -7998,143 +8789,21 @@
         <v>7430</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I133" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="J133" s="85" t="s">
-        <v>316</v>
+        <v>310</v>
+      </c>
+      <c r="J133" s="38" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="37.35" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="135" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="120">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="A60:A63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="D80:D84"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="C95:C99"/>
-    <mergeCell ref="D95:D99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="D100:D104"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="D90:D94"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="D126:D129"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{6B11DDF7-1C21-48D2-A1B8-C6FB636AA2B9}"/>
     <hyperlink ref="J3:J133" r:id="rId2" display="test@gmail.com" xr:uid="{01780519-8C23-4FEB-98AD-ADE18138E376}"/>
@@ -8164,15 +8833,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="84"/>
+      <c r="A1" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="87"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -8206,17 +8875,17 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
-        <v>1</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>91</v>
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>87</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -8225,17 +8894,17 @@
         <v>7365</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="8">
         <v>2</v>
       </c>
@@ -8243,17 +8912,17 @@
         <v>5360</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="78"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="8">
         <v>3</v>
       </c>
@@ -8261,17 +8930,17 @@
         <v>7298</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="79"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="8">
         <v>4</v>
       </c>
@@ -8279,24 +8948,24 @@
         <v>5443</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
+      <c r="A7" s="48">
         <v>2</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>101</v>
+      <c r="C7" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>97</v>
       </c>
       <c r="E7" s="14">
         <v>1</v>
@@ -8305,17 +8974,17 @@
         <v>7369</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="39"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="14">
         <v>2</v>
       </c>
@@ -8323,17 +8992,17 @@
         <v>7320</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="39"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="14">
         <v>3</v>
       </c>
@@ -8341,17 +9010,17 @@
         <v>7299</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="14">
         <v>4</v>
       </c>
@@ -8359,24 +9028,24 @@
         <v>7370</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47">
+      <c r="A11" s="39">
         <v>3</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>110</v>
+      <c r="C11" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>106</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
@@ -8385,17 +9054,17 @@
         <v>5342</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="51"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="8">
         <v>2</v>
       </c>
@@ -8403,17 +9072,17 @@
         <v>7312</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="51"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="8">
         <v>3</v>
       </c>
@@ -8421,17 +9090,17 @@
         <v>7415</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="52"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="8">
         <v>4</v>
       </c>
@@ -8439,24 +9108,24 @@
         <v>7403</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
+      <c r="A15" s="48">
         <v>4</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>119</v>
+      <c r="C15" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>115</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
@@ -8465,17 +9134,17 @@
         <v>7359</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="42"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="14">
         <v>2</v>
       </c>
@@ -8483,17 +9152,17 @@
         <v>7301</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="42"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="14">
         <v>3</v>
       </c>
@@ -8501,17 +9170,17 @@
         <v>8127</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="43"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="14">
         <v>4</v>
       </c>
@@ -8519,24 +9188,24 @@
         <v>7346</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47">
+      <c r="A19" s="39">
         <v>5</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>129</v>
+      <c r="C19" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>125</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
@@ -8545,17 +9214,17 @@
         <v>7379</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="72"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="8">
         <v>2</v>
       </c>
@@ -8563,17 +9232,17 @@
         <v>6300</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="72"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="8">
         <v>3</v>
       </c>
@@ -8581,17 +9250,17 @@
         <v>7433</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="73"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="8">
         <v>4</v>
       </c>
@@ -8599,24 +9268,24 @@
         <v>6229</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
+      <c r="A23" s="48">
         <v>6</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>139</v>
+      <c r="B23" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>135</v>
       </c>
       <c r="E23" s="14">
         <v>1</v>
@@ -8625,17 +9294,17 @@
         <v>7327</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="39"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="14">
         <v>2</v>
       </c>
@@ -8643,17 +9312,17 @@
         <v>7363</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="14">
         <v>3</v>
       </c>
@@ -8661,17 +9330,17 @@
         <v>6439</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="40.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="40"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="14">
         <v>4</v>
       </c>
@@ -8679,27 +9348,14 @@
         <v>7353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:C26"/>
@@ -8712,6 +9368,19 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8738,15 +9407,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="83"/>
+      <c r="A1" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -8780,17 +9449,17 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
-        <v>1</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="62" t="s">
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>150</v>
+      <c r="D3" s="69" t="s">
+        <v>146</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
@@ -8799,17 +9468,17 @@
         <v>7397</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="72"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="10">
         <v>2</v>
       </c>
@@ -8817,17 +9486,17 @@
         <v>7273</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="72"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="10">
         <v>3</v>
       </c>
@@ -8835,17 +9504,17 @@
         <v>7319</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="73"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="10">
         <v>4</v>
       </c>
@@ -8853,24 +9522,24 @@
         <v>7362</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
+      <c r="A7" s="48">
         <v>2</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>159</v>
+      <c r="C7" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>155</v>
       </c>
       <c r="E7" s="15">
         <v>1</v>
@@ -8879,17 +9548,17 @@
         <v>8412</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="75"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="15">
         <v>2</v>
       </c>
@@ -8897,17 +9566,17 @@
         <v>7282</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="75"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="15">
         <v>3</v>
       </c>
@@ -8915,17 +9584,17 @@
         <v>6423</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="76"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="15">
         <v>4</v>
       </c>
@@ -8933,24 +9602,24 @@
         <v>7426</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47">
+      <c r="A11" s="39">
         <v>3</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>167</v>
+      <c r="C11" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>163</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
@@ -8959,17 +9628,17 @@
         <v>7314</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="57"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="10">
         <v>2</v>
       </c>
@@ -8977,17 +9646,17 @@
         <v>7428</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="57"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="10">
         <v>3</v>
       </c>
@@ -8995,17 +9664,17 @@
         <v>5251</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="58"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="10">
         <v>4</v>
       </c>
@@ -9013,24 +9682,24 @@
         <v>7387</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
+      <c r="A15" s="48">
         <v>4</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>174</v>
+      <c r="C15" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>170</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
@@ -9039,17 +9708,17 @@
         <v>6165</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="15">
         <v>2</v>
       </c>
@@ -9057,17 +9726,17 @@
         <v>7351</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="15">
         <v>3</v>
       </c>
@@ -9075,17 +9744,17 @@
         <v>7393</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="15">
         <v>4</v>
       </c>
@@ -9093,24 +9762,24 @@
         <v>7436</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47">
+      <c r="A19" s="39">
         <v>5</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="56" t="s">
-        <v>182</v>
+      <c r="D19" s="45" t="s">
+        <v>178</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
@@ -9119,17 +9788,17 @@
         <v>7377</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="10">
         <v>2</v>
       </c>
@@ -9137,17 +9806,17 @@
         <v>7281</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="10">
         <v>3</v>
       </c>
@@ -9155,17 +9824,17 @@
         <v>6336</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="10">
         <v>4</v>
       </c>
@@ -9173,24 +9842,24 @@
         <v>7378</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
+      <c r="A23" s="48">
         <v>6</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>192</v>
+      <c r="B23" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>188</v>
       </c>
       <c r="E23" s="15">
         <v>1</v>
@@ -9199,17 +9868,17 @@
         <v>7284</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="39"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="15">
         <v>2</v>
       </c>
@@ -9217,17 +9886,17 @@
         <v>7371</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="15">
         <v>3</v>
       </c>
@@ -9235,17 +9904,17 @@
         <v>7348</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="40"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="15">
         <v>4</v>
       </c>
@@ -9253,27 +9922,14 @@
         <v>7324</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:C26"/>
@@ -9286,6 +9942,19 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9312,12 +9981,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="83"/>
+      <c r="A1" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -9354,17 +10023,17 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
-        <v>1</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>203</v>
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>199</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
@@ -9373,17 +10042,17 @@
         <v>6212</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="10">
         <v>2</v>
       </c>
@@ -9391,17 +10060,17 @@
         <v>7321</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="10">
         <v>3</v>
       </c>
@@ -9409,17 +10078,17 @@
         <v>7368</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="10">
         <v>4</v>
       </c>
@@ -9427,17 +10096,17 @@
         <v>7444</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="52"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="10">
         <v>5</v>
       </c>
@@ -9445,24 +10114,24 @@
         <v>7322</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35">
+      <c r="A8" s="48">
         <v>2</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>213</v>
+      <c r="C8" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>209</v>
       </c>
       <c r="E8" s="15">
         <v>1</v>
@@ -9471,17 +10140,17 @@
         <v>7400</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="39"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="15">
         <v>2</v>
       </c>
@@ -9489,17 +10158,17 @@
         <v>7302</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="39"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="15">
         <v>3</v>
       </c>
@@ -9507,17 +10176,17 @@
         <v>7280</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="15">
         <v>4</v>
       </c>
@@ -9525,17 +10194,17 @@
         <v>7331</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="40"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="15">
         <v>5</v>
       </c>
@@ -9543,24 +10212,24 @@
         <v>7344</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="47">
+      <c r="A13" s="39">
         <v>3</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>222</v>
+      <c r="C13" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>218</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -9569,17 +10238,17 @@
         <v>7418</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="10">
         <v>2</v>
       </c>
@@ -9587,17 +10256,17 @@
         <v>5388</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="10">
         <v>3</v>
       </c>
@@ -9605,17 +10274,17 @@
         <v>7316</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="10">
         <v>4</v>
       </c>
@@ -9623,17 +10292,17 @@
         <v>7275</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="10">
         <v>5</v>
       </c>
@@ -9641,24 +10310,24 @@
         <v>7420</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
+      <c r="A18" s="48">
         <v>4</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>233</v>
+      <c r="C18" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>229</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
@@ -9667,17 +10336,17 @@
         <v>7440</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="69"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="15">
         <v>2</v>
       </c>
@@ -9685,17 +10354,17 @@
         <v>5102</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="69"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="15">
         <v>3</v>
       </c>
@@ -9703,17 +10372,17 @@
         <v>7334</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="69"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="15">
         <v>4</v>
       </c>
@@ -9721,17 +10390,17 @@
         <v>7328</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="70"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="15">
         <v>5</v>
       </c>
@@ -9739,24 +10408,24 @@
         <v>7283</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H22" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="39">
+        <v>5</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="69" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47">
-        <v>5</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23" s="71" t="s">
-        <v>242</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
@@ -9765,17 +10434,17 @@
         <v>8398</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="72"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="10">
         <v>2</v>
       </c>
@@ -9783,17 +10452,17 @@
         <v>7277</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="72"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="10">
         <v>3</v>
       </c>
@@ -9801,17 +10470,17 @@
         <v>7340</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="72"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="10">
         <v>4</v>
       </c>
@@ -9819,17 +10488,17 @@
         <v>7416</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="73"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="10">
         <v>5</v>
       </c>
@@ -9837,24 +10506,24 @@
         <v>7292</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35">
+      <c r="A28" s="48">
         <v>6</v>
       </c>
-      <c r="B28" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>251</v>
+      <c r="B28" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>247</v>
       </c>
       <c r="E28" s="15">
         <v>1</v>
@@ -9863,17 +10532,17 @@
         <v>8279</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="39"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="15">
         <v>2</v>
       </c>
@@ -9881,17 +10550,17 @@
         <v>7296</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="15">
         <v>3</v>
       </c>
@@ -9899,17 +10568,17 @@
         <v>8330</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="28.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="15">
         <v>4</v>
       </c>
@@ -9917,17 +10586,17 @@
         <v>7441</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="15">
         <v>5</v>
       </c>
@@ -9935,27 +10604,14 @@
         <v>8438</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="C28:C32"/>
@@ -9968,6 +10624,19 @@
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="D23:D27"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9994,15 +10663,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="83"/>
+      <c r="A1" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="88"/>
       <c r="C1" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -10036,17 +10705,17 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47">
-        <v>1</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>263</v>
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>259</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
@@ -10055,17 +10724,17 @@
         <v>7317</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="66"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="82"/>
       <c r="E4" s="10">
         <v>2</v>
       </c>
@@ -10073,17 +10742,17 @@
         <v>7394</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="66"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="10">
         <v>3</v>
       </c>
@@ -10091,17 +10760,17 @@
         <v>7294</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="67"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="10">
         <v>4</v>
       </c>
@@ -10109,24 +10778,24 @@
         <v>7367</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35">
+      <c r="A7" s="48">
         <v>2</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>251</v>
+      <c r="C7" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>247</v>
       </c>
       <c r="E7" s="15">
         <v>1</v>
@@ -10135,17 +10804,17 @@
         <v>5276</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="39"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="15">
         <v>2</v>
       </c>
@@ -10153,17 +10822,17 @@
         <v>7318</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="39"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="15">
         <v>3</v>
       </c>
@@ -10171,17 +10840,17 @@
         <v>7361</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="15">
         <v>4</v>
       </c>
@@ -10189,24 +10858,24 @@
         <v>6289</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47">
+      <c r="A11" s="39">
         <v>3</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="59" t="s">
-        <v>280</v>
+      <c r="D11" s="78" t="s">
+        <v>276</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
@@ -10215,17 +10884,17 @@
         <v>7347</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="60"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="10">
         <v>2</v>
       </c>
@@ -10233,17 +10902,17 @@
         <v>7341</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="60"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="10">
         <v>3</v>
       </c>
@@ -10251,17 +10920,17 @@
         <v>7406</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="61"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="10">
         <v>4</v>
       </c>
@@ -10269,24 +10938,24 @@
         <v>7339</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35">
+      <c r="A15" s="48">
         <v>4</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>289</v>
+      <c r="C15" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>285</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
@@ -10295,17 +10964,17 @@
         <v>7309</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="39"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="15">
         <v>2</v>
       </c>
@@ -10313,17 +10982,17 @@
         <v>7396</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="15">
         <v>3</v>
       </c>
@@ -10331,17 +11000,17 @@
         <v>7310</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="40"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="15">
         <v>4</v>
       </c>
@@ -10349,24 +11018,24 @@
         <v>7391</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47">
+      <c r="A19" s="39">
         <v>5</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="D19" s="56" t="s">
-        <v>298</v>
+      <c r="C19" s="84" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>294</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
@@ -10375,17 +11044,17 @@
         <v>7408</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="57"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="10">
         <v>2</v>
       </c>
@@ -10393,17 +11062,17 @@
         <v>7293</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="57"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="10">
         <v>3</v>
       </c>
@@ -10411,17 +11080,17 @@
         <v>7329</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="58"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="10">
         <v>4</v>
       </c>
@@ -10429,24 +11098,24 @@
         <v>6432</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="35">
+      <c r="A23" s="48">
         <v>6</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>306</v>
+      <c r="B23" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>302</v>
       </c>
       <c r="E23" s="15">
         <v>1</v>
@@ -10455,17 +11124,17 @@
         <v>5373</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="45"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="15">
         <v>2</v>
       </c>
@@ -10473,17 +11142,17 @@
         <v>7422</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="45"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="15">
         <v>3</v>
       </c>
@@ -10491,17 +11160,17 @@
         <v>7386</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="46"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="15">
         <v>4</v>
       </c>
@@ -10509,27 +11178,14 @@
         <v>7430</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:C26"/>
@@ -10542,6 +11198,19 @@
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
